--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2990.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2990.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.189021386131344</v>
+        <v>2.053496360778809</v>
       </c>
       <c r="B1">
-        <v>2.49475349308535</v>
+        <v>2.255256175994873</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.268766164779663</v>
       </c>
       <c r="D1">
-        <v>2.2655779326152</v>
+        <v>2.824041128158569</v>
       </c>
       <c r="E1">
-        <v>1.190866572927054</v>
+        <v>3.568579196929932</v>
       </c>
     </row>
   </sheetData>
